--- a/How many Facebook friends do Udacians have_ - Lesson 3.xlsx
+++ b/How many Facebook friends do Udacians have_ - Lesson 3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Lesson 14" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,12 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
     <t>How many Facebook friends do you have?</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>abs dev</t>
+  </si>
+  <si>
+    <t>squared dev</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>avg devivation</t>
+  </si>
+  <si>
+    <t>square dev sum</t>
+  </si>
+  <si>
+    <t>square dev avg</t>
+  </si>
+  <si>
+    <t>stardard dev</t>
+  </si>
+  <si>
+    <t>stabdard dev above mean</t>
+  </si>
+  <si>
+    <t>standard below mean</t>
+  </si>
+  <si>
+    <t>porion between dev</t>
+  </si>
+  <si>
+    <t>bressel correction</t>
   </si>
 </sst>
 </file>
@@ -71,13 +107,13 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -105,7 +141,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="21" width="17.29"/>
+    <col customWidth="1" min="1" max="22" width="17.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -115,225 +151,626 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>41276.707708333335</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>0.0</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C28" si="1">B2-$H$2</f>
+        <v>-584.7407407</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D28" si="2">ABS(C2)</f>
+        <v>584.7407407</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E28" si="3">D2^2</f>
+        <v>341921.7339</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:B28)</f>
+        <v>584.7407407</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>41276.63946759259</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>69.0</v>
       </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>-515.7407407</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>515.7407407</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="3"/>
+        <v>265988.5117</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(D2:D28)</f>
+        <v>353.1193416</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>41276.67836805555</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>123.0</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>-461.7407407</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>461.7407407</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>213204.5117</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <f>sum(E2:E28)</f>
+        <v>4978411.185</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>41276.75976851852</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>137.0</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-447.7407407</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>447.7407407</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>200471.7709</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(E2:E28)</f>
+        <v>184385.5995</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>41276.83642361111</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>174.0</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>-410.7407407</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>410.7407407</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>168707.9561</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f>SQRT(H5)</f>
+        <v>429.4014432</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>41276.70774305556</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>240.0</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-344.7407407</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>344.7407407</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>118846.1783</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>41276.63875</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>241.0</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-343.7407407</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>343.7407407</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>118157.6968</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>H2+H6</f>
+        <v>1014.142184</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>41276.69164351852</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>256.0</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-328.7407407</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>328.7407407</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>108070.4746</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <f>H2-H6</f>
+        <v>155.3392975</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>41276.686435185184</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>258.0</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-326.7407407</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>326.7407407</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>106759.5117</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>41276.97115740741</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>322.0</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-262.7407407</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>262.7407407</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>69032.69684</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>41276.67849537037</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>366.0</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-218.7407407</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>218.7407407</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>47847.51166</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f>18/27</f>
+        <v>0.6666666667</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>41276.6877662037</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>376.0</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-208.7407407</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>208.7407407</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>43572.69684</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>41276.64344907407</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>408.0</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-176.7407407</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>176.7407407</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>31237.28944</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f>sqrt(H4/(27-1))</f>
+        <v>437.5812533</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>41276.74762731481</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>479.0</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-105.7407407</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>105.7407407</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>11181.10425</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>41276.66388888889</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>555.0</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-29.74074074</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>29.74074074</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>884.5116598</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>41276.63859953704</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>589.0</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>4.259259259</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>4.259259259</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>18.14128944</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>41277.43114583333</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>600.0</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>15.25925926</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>15.25925926</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>232.8449931</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>41276.652407407404</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>777.0</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>192.2592593</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>192.2592593</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>36963.62277</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>41276.639861111114</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>784.0</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>199.2592593</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>199.2592593</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>39704.2524</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>41276.65702546296</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>822.0</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>237.2592593</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>237.2592593</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>56291.9561</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>41276.7040162037</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>850.0</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>265.2592593</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>265.2592593</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>70362.47462</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>41276.68304398148</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>863.0</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>278.2592593</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>278.2592593</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>77428.21536</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>41276.6390625</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>1116.0</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>531.2592593</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>531.2592593</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>282236.4005</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>41276.68386574074</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>1143.0</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>558.2592593</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>558.2592593</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>311653.4005</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>41276.639710648145</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>1214.0</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>629.2592593</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>629.2592593</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>395967.2154</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>41281.760787037034</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>1250.0</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>665.2592593</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>665.2592593</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>442569.882</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>41276.64371527778</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>1776.0</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1191.259259</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>1191.259259</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>1419098.623</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
